--- a/assets/excelTemplate/datos.xlsx
+++ b/assets/excelTemplate/datos.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Teki Susu - de 12 de Agosto de 2024</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Semana</t>
-  </si>
-  <si>
     <t>Lunes</t>
   </si>
   <si>
@@ -51,7 +48,7 @@
     <t>Sábado</t>
   </si>
   <si>
-    <t>Estado</t>
+    <t>Semana #: 00</t>
   </si>
 </sst>
 </file>
@@ -67,7 +64,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -88,7 +85,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,15 +108,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -132,8 +120,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,35 +403,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="7" width="14.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="1" max="5" width="14.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -451,31 +437,26 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I2"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+  <autoFilter ref="A2:G2"/>
+  <mergeCells count="2">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
